--- a/CPSC-457-A2.xlsx
+++ b/CPSC-457-A2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjdre\CLionProjects\CPSC-457-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9167E3D0-1E0E-4367-9AA0-6A6AD38997BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA37207-C286-453C-B793-5B8292F5E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{0D092D9F-9D73-4229-B12D-DFA5E53D512F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0D092D9F-9D73-4229-B12D-DFA5E53D512F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5225,6 +5225,2204 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>4. Page Faults as</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> a Function of n</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CLK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$1:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CB9-43FD-9FAD-DC3357063CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$1:$Z$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CB9-43FD-9FAD-DC3357063CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1048167328"/>
+        <c:axId val="1048173568"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>OPT</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AA$1:$AA$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="32"/>
+                      <c:pt idx="0">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7CB9-43FD-9FAD-DC3357063CCE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1048167328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048173568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1048173568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Page Faults</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048167328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>5.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Page Faults as a Function of m</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CLK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$1:$AD$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>13551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13548</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13537</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13548</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13554</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13548</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13548</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13542</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13551</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13538</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13541</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13543</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13544</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13546</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CDD-4CD6-95CB-9AFD80CE93B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$1:$AE$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13540</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CDD-4CD6-95CB-9AFD80CE93B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1063215056"/>
+        <c:axId val="1063220816"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>OPT</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AF$1:$AF$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9246</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9CDD-4CD6-95CB-9AFD80CE93B4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1063215056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063220816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1063220816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Page Faults</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063215056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5345,6 +7543,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6378,6 +8656,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6971,16 +10281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7002,6 +10312,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E89334-12AB-C2EB-6807-A3DF26D08984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18097</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>322897</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B87DC5-C5AB-7FAB-FE93-794E1F117FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7327,15 +10709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0999D17-E8BF-4D6B-829F-CF6F3C4CC77A}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7363,8 +10745,29 @@
       <c r="L1">
         <v>7501</v>
       </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>13547</v>
+      </c>
+      <c r="Z1">
+        <v>13540</v>
+      </c>
+      <c r="AA1">
+        <v>9246</v>
+      </c>
+      <c r="AD1">
+        <v>13551</v>
+      </c>
+      <c r="AE1">
+        <v>13540</v>
+      </c>
+      <c r="AF1">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7392,8 +10795,29 @@
       <c r="L2">
         <v>7492</v>
       </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>13546</v>
+      </c>
+      <c r="Z2">
+        <v>13540</v>
+      </c>
+      <c r="AA2">
+        <v>9246</v>
+      </c>
+      <c r="AD2">
+        <v>13543</v>
+      </c>
+      <c r="AE2">
+        <v>13540</v>
+      </c>
+      <c r="AF2">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7421,8 +10845,29 @@
       <c r="L3">
         <v>7488</v>
       </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>13544</v>
+      </c>
+      <c r="Z3">
+        <v>13540</v>
+      </c>
+      <c r="AA3">
+        <v>9246</v>
+      </c>
+      <c r="AD3">
+        <v>13542</v>
+      </c>
+      <c r="AE3">
+        <v>13540</v>
+      </c>
+      <c r="AF3">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7450,8 +10895,29 @@
       <c r="L4">
         <v>7474</v>
       </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>13539</v>
+      </c>
+      <c r="Z4">
+        <v>13540</v>
+      </c>
+      <c r="AA4">
+        <v>9246</v>
+      </c>
+      <c r="AD4">
+        <v>13545</v>
+      </c>
+      <c r="AE4">
+        <v>13540</v>
+      </c>
+      <c r="AF4">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7479,8 +10945,29 @@
       <c r="L5">
         <v>7471</v>
       </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>13535</v>
+      </c>
+      <c r="Z5">
+        <v>13540</v>
+      </c>
+      <c r="AA5">
+        <v>9246</v>
+      </c>
+      <c r="AD5">
+        <v>13534</v>
+      </c>
+      <c r="AE5">
+        <v>13540</v>
+      </c>
+      <c r="AF5">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7508,8 +10995,29 @@
       <c r="L6">
         <v>7461</v>
       </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>13538</v>
+      </c>
+      <c r="Z6">
+        <v>13540</v>
+      </c>
+      <c r="AA6">
+        <v>9246</v>
+      </c>
+      <c r="AD6">
+        <v>13537</v>
+      </c>
+      <c r="AE6">
+        <v>13540</v>
+      </c>
+      <c r="AF6">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7537,8 +11045,29 @@
       <c r="L7">
         <v>7452</v>
       </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>13527</v>
+      </c>
+      <c r="Z7">
+        <v>13540</v>
+      </c>
+      <c r="AA7">
+        <v>9246</v>
+      </c>
+      <c r="AD7">
+        <v>13534</v>
+      </c>
+      <c r="AE7">
+        <v>13540</v>
+      </c>
+      <c r="AF7">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7566,8 +11095,29 @@
       <c r="L8">
         <v>7445</v>
       </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>13533</v>
+      </c>
+      <c r="Z8">
+        <v>13540</v>
+      </c>
+      <c r="AA8">
+        <v>9246</v>
+      </c>
+      <c r="AD8">
+        <v>13537</v>
+      </c>
+      <c r="AE8">
+        <v>13540</v>
+      </c>
+      <c r="AF8">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7595,8 +11145,29 @@
       <c r="L9">
         <v>7437</v>
       </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>13537</v>
+      </c>
+      <c r="Z9">
+        <v>13540</v>
+      </c>
+      <c r="AA9">
+        <v>9246</v>
+      </c>
+      <c r="AD9">
+        <v>13533</v>
+      </c>
+      <c r="AE9">
+        <v>13540</v>
+      </c>
+      <c r="AF9">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7624,8 +11195,29 @@
       <c r="L10">
         <v>7427</v>
       </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>13540</v>
+      </c>
+      <c r="Z10">
+        <v>13540</v>
+      </c>
+      <c r="AA10">
+        <v>9246</v>
+      </c>
+      <c r="AD10">
+        <v>13533</v>
+      </c>
+      <c r="AE10">
+        <v>13540</v>
+      </c>
+      <c r="AF10">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7653,8 +11245,29 @@
       <c r="L11">
         <v>7420</v>
       </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>13535</v>
+      </c>
+      <c r="Z11">
+        <v>13540</v>
+      </c>
+      <c r="AA11">
+        <v>9246</v>
+      </c>
+      <c r="AD11">
+        <v>13542</v>
+      </c>
+      <c r="AE11">
+        <v>13540</v>
+      </c>
+      <c r="AF11">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7682,8 +11295,29 @@
       <c r="L12">
         <v>7408</v>
       </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>13540</v>
+      </c>
+      <c r="Z12">
+        <v>13540</v>
+      </c>
+      <c r="AA12">
+        <v>9246</v>
+      </c>
+      <c r="AD12">
+        <v>13544</v>
+      </c>
+      <c r="AE12">
+        <v>13540</v>
+      </c>
+      <c r="AF12">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7711,8 +11345,29 @@
       <c r="L13">
         <v>7399</v>
       </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>13539</v>
+      </c>
+      <c r="Z13">
+        <v>13540</v>
+      </c>
+      <c r="AA13">
+        <v>9246</v>
+      </c>
+      <c r="AD13">
+        <v>13535</v>
+      </c>
+      <c r="AE13">
+        <v>13540</v>
+      </c>
+      <c r="AF13">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7740,8 +11395,29 @@
       <c r="L14">
         <v>7387</v>
       </c>
+      <c r="X14">
+        <v>14</v>
+      </c>
+      <c r="Y14">
+        <v>13536</v>
+      </c>
+      <c r="Z14">
+        <v>13540</v>
+      </c>
+      <c r="AA14">
+        <v>9246</v>
+      </c>
+      <c r="AD14">
+        <v>13540</v>
+      </c>
+      <c r="AE14">
+        <v>13540</v>
+      </c>
+      <c r="AF14">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7769,8 +11445,29 @@
       <c r="L15">
         <v>7378</v>
       </c>
+      <c r="X15">
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <v>13535</v>
+      </c>
+      <c r="Z15">
+        <v>13540</v>
+      </c>
+      <c r="AA15">
+        <v>9246</v>
+      </c>
+      <c r="AD15">
+        <v>13544</v>
+      </c>
+      <c r="AE15">
+        <v>13540</v>
+      </c>
+      <c r="AF15">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7798,8 +11495,29 @@
       <c r="L16">
         <v>7374</v>
       </c>
+      <c r="X16">
+        <v>16</v>
+      </c>
+      <c r="Y16">
+        <v>13541</v>
+      </c>
+      <c r="Z16">
+        <v>13540</v>
+      </c>
+      <c r="AA16">
+        <v>9246</v>
+      </c>
+      <c r="AD16">
+        <v>13538</v>
+      </c>
+      <c r="AE16">
+        <v>13540</v>
+      </c>
+      <c r="AF16">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7827,8 +11545,29 @@
       <c r="L17">
         <v>7365</v>
       </c>
+      <c r="X17">
+        <v>17</v>
+      </c>
+      <c r="Y17">
+        <v>13541</v>
+      </c>
+      <c r="Z17">
+        <v>13540</v>
+      </c>
+      <c r="AA17">
+        <v>9246</v>
+      </c>
+      <c r="AD17">
+        <v>13541</v>
+      </c>
+      <c r="AE17">
+        <v>13540</v>
+      </c>
+      <c r="AF17">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7856,8 +11595,29 @@
       <c r="L18">
         <v>7360</v>
       </c>
+      <c r="X18">
+        <v>18</v>
+      </c>
+      <c r="Y18">
+        <v>13542</v>
+      </c>
+      <c r="Z18">
+        <v>13540</v>
+      </c>
+      <c r="AA18">
+        <v>9246</v>
+      </c>
+      <c r="AD18">
+        <v>13541</v>
+      </c>
+      <c r="AE18">
+        <v>13540</v>
+      </c>
+      <c r="AF18">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7885,8 +11645,29 @@
       <c r="L19">
         <v>7348</v>
       </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>13539</v>
+      </c>
+      <c r="Z19">
+        <v>13540</v>
+      </c>
+      <c r="AA19">
+        <v>9246</v>
+      </c>
+      <c r="AD19">
+        <v>13546</v>
+      </c>
+      <c r="AE19">
+        <v>13540</v>
+      </c>
+      <c r="AF19">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -7914,8 +11695,29 @@
       <c r="L20">
         <v>7341</v>
       </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <v>13537</v>
+      </c>
+      <c r="Z20">
+        <v>13540</v>
+      </c>
+      <c r="AA20">
+        <v>9246</v>
+      </c>
+      <c r="AD20">
+        <v>13542</v>
+      </c>
+      <c r="AE20">
+        <v>13540</v>
+      </c>
+      <c r="AF20">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -7943,8 +11745,29 @@
       <c r="L21">
         <v>7333</v>
       </c>
+      <c r="X21">
+        <v>21</v>
+      </c>
+      <c r="Y21">
+        <v>13538</v>
+      </c>
+      <c r="Z21">
+        <v>13540</v>
+      </c>
+      <c r="AA21">
+        <v>9246</v>
+      </c>
+      <c r="AD21">
+        <v>13548</v>
+      </c>
+      <c r="AE21">
+        <v>13540</v>
+      </c>
+      <c r="AF21">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -7972,8 +11795,29 @@
       <c r="L22">
         <v>7323</v>
       </c>
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>13538</v>
+      </c>
+      <c r="Z22">
+        <v>13540</v>
+      </c>
+      <c r="AA22">
+        <v>9246</v>
+      </c>
+      <c r="AD22">
+        <v>13541</v>
+      </c>
+      <c r="AE22">
+        <v>13540</v>
+      </c>
+      <c r="AF22">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -8001,8 +11845,29 @@
       <c r="L23">
         <v>7315</v>
       </c>
+      <c r="X23">
+        <v>23</v>
+      </c>
+      <c r="Y23">
+        <v>13535</v>
+      </c>
+      <c r="Z23">
+        <v>13540</v>
+      </c>
+      <c r="AA23">
+        <v>9246</v>
+      </c>
+      <c r="AD23">
+        <v>13544</v>
+      </c>
+      <c r="AE23">
+        <v>13540</v>
+      </c>
+      <c r="AF23">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -8030,8 +11895,29 @@
       <c r="L24">
         <v>7308</v>
       </c>
+      <c r="X24">
+        <v>24</v>
+      </c>
+      <c r="Y24">
+        <v>13541</v>
+      </c>
+      <c r="Z24">
+        <v>13540</v>
+      </c>
+      <c r="AA24">
+        <v>9246</v>
+      </c>
+      <c r="AD24">
+        <v>13545</v>
+      </c>
+      <c r="AE24">
+        <v>13540</v>
+      </c>
+      <c r="AF24">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -8059,8 +11945,29 @@
       <c r="L25">
         <v>7301</v>
       </c>
+      <c r="X25">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>13539</v>
+      </c>
+      <c r="Z25">
+        <v>13540</v>
+      </c>
+      <c r="AA25">
+        <v>9246</v>
+      </c>
+      <c r="AD25">
+        <v>13545</v>
+      </c>
+      <c r="AE25">
+        <v>13540</v>
+      </c>
+      <c r="AF25">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -8088,8 +11995,29 @@
       <c r="L26">
         <v>7290</v>
       </c>
+      <c r="X26">
+        <v>26</v>
+      </c>
+      <c r="Y26">
+        <v>13539</v>
+      </c>
+      <c r="Z26">
+        <v>13540</v>
+      </c>
+      <c r="AA26">
+        <v>9246</v>
+      </c>
+      <c r="AD26">
+        <v>13541</v>
+      </c>
+      <c r="AE26">
+        <v>13540</v>
+      </c>
+      <c r="AF26">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -8117,8 +12045,29 @@
       <c r="L27">
         <v>7280</v>
       </c>
+      <c r="X27">
+        <v>27</v>
+      </c>
+      <c r="Y27">
+        <v>13539</v>
+      </c>
+      <c r="Z27">
+        <v>13540</v>
+      </c>
+      <c r="AA27">
+        <v>9246</v>
+      </c>
+      <c r="AD27">
+        <v>13540</v>
+      </c>
+      <c r="AE27">
+        <v>13540</v>
+      </c>
+      <c r="AF27">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -8146,8 +12095,29 @@
       <c r="L28">
         <v>7266</v>
       </c>
+      <c r="X28">
+        <v>28</v>
+      </c>
+      <c r="Y28">
+        <v>13541</v>
+      </c>
+      <c r="Z28">
+        <v>13540</v>
+      </c>
+      <c r="AA28">
+        <v>9246</v>
+      </c>
+      <c r="AD28">
+        <v>13549</v>
+      </c>
+      <c r="AE28">
+        <v>13540</v>
+      </c>
+      <c r="AF28">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -8175,8 +12145,29 @@
       <c r="L29">
         <v>7263</v>
       </c>
+      <c r="X29">
+        <v>29</v>
+      </c>
+      <c r="Y29">
+        <v>13537</v>
+      </c>
+      <c r="Z29">
+        <v>13540</v>
+      </c>
+      <c r="AA29">
+        <v>9246</v>
+      </c>
+      <c r="AD29">
+        <v>13540</v>
+      </c>
+      <c r="AE29">
+        <v>13540</v>
+      </c>
+      <c r="AF29">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -8204,8 +12195,29 @@
       <c r="L30">
         <v>7257</v>
       </c>
+      <c r="X30">
+        <v>30</v>
+      </c>
+      <c r="Y30">
+        <v>13539</v>
+      </c>
+      <c r="Z30">
+        <v>13540</v>
+      </c>
+      <c r="AA30">
+        <v>9246</v>
+      </c>
+      <c r="AD30">
+        <v>13547</v>
+      </c>
+      <c r="AE30">
+        <v>13540</v>
+      </c>
+      <c r="AF30">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8233,8 +12245,29 @@
       <c r="L31">
         <v>7249</v>
       </c>
+      <c r="X31">
+        <v>31</v>
+      </c>
+      <c r="Y31">
+        <v>13539</v>
+      </c>
+      <c r="Z31">
+        <v>13540</v>
+      </c>
+      <c r="AA31">
+        <v>9246</v>
+      </c>
+      <c r="AD31">
+        <v>13539</v>
+      </c>
+      <c r="AE31">
+        <v>13540</v>
+      </c>
+      <c r="AF31">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -8262,8 +12295,29 @@
       <c r="L32">
         <v>7244</v>
       </c>
+      <c r="X32">
+        <v>32</v>
+      </c>
+      <c r="Y32">
+        <v>13536</v>
+      </c>
+      <c r="Z32">
+        <v>13540</v>
+      </c>
+      <c r="AA32">
+        <v>9246</v>
+      </c>
+      <c r="AD32">
+        <v>13543</v>
+      </c>
+      <c r="AE32">
+        <v>13540</v>
+      </c>
+      <c r="AF32">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -8291,8 +12345,17 @@
       <c r="L33">
         <v>7236</v>
       </c>
+      <c r="AD33">
+        <v>13540</v>
+      </c>
+      <c r="AE33">
+        <v>13540</v>
+      </c>
+      <c r="AF33">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -8320,8 +12383,17 @@
       <c r="L34">
         <v>7231</v>
       </c>
+      <c r="AD34">
+        <v>13537</v>
+      </c>
+      <c r="AE34">
+        <v>13540</v>
+      </c>
+      <c r="AF34">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8349,8 +12421,17 @@
       <c r="L35">
         <v>7223</v>
       </c>
+      <c r="AD35">
+        <v>13540</v>
+      </c>
+      <c r="AE35">
+        <v>13540</v>
+      </c>
+      <c r="AF35">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8378,8 +12459,17 @@
       <c r="L36">
         <v>7217</v>
       </c>
+      <c r="AD36">
+        <v>13543</v>
+      </c>
+      <c r="AE36">
+        <v>13540</v>
+      </c>
+      <c r="AF36">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -8407,8 +12497,17 @@
       <c r="L37">
         <v>7207</v>
       </c>
+      <c r="AD37">
+        <v>13546</v>
+      </c>
+      <c r="AE37">
+        <v>13540</v>
+      </c>
+      <c r="AF37">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -8436,8 +12535,17 @@
       <c r="L38">
         <v>7198</v>
       </c>
+      <c r="AD38">
+        <v>13548</v>
+      </c>
+      <c r="AE38">
+        <v>13540</v>
+      </c>
+      <c r="AF38">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -8465,8 +12573,17 @@
       <c r="L39">
         <v>7192</v>
       </c>
+      <c r="AD39">
+        <v>13546</v>
+      </c>
+      <c r="AE39">
+        <v>13540</v>
+      </c>
+      <c r="AF39">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -8494,8 +12611,17 @@
       <c r="L40">
         <v>7186</v>
       </c>
+      <c r="AD40">
+        <v>13546</v>
+      </c>
+      <c r="AE40">
+        <v>13540</v>
+      </c>
+      <c r="AF40">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8523,8 +12649,17 @@
       <c r="L41">
         <v>7178</v>
       </c>
+      <c r="AD41">
+        <v>13543</v>
+      </c>
+      <c r="AE41">
+        <v>13540</v>
+      </c>
+      <c r="AF41">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8552,8 +12687,17 @@
       <c r="L42">
         <v>7165</v>
       </c>
+      <c r="AD42">
+        <v>13542</v>
+      </c>
+      <c r="AE42">
+        <v>13540</v>
+      </c>
+      <c r="AF42">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8581,8 +12725,17 @@
       <c r="L43">
         <v>7157</v>
       </c>
+      <c r="AD43">
+        <v>13549</v>
+      </c>
+      <c r="AE43">
+        <v>13540</v>
+      </c>
+      <c r="AF43">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8610,8 +12763,17 @@
       <c r="L44">
         <v>7150</v>
       </c>
+      <c r="AD44">
+        <v>13545</v>
+      </c>
+      <c r="AE44">
+        <v>13540</v>
+      </c>
+      <c r="AF44">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8639,8 +12801,17 @@
       <c r="L45">
         <v>7139</v>
       </c>
+      <c r="AD45">
+        <v>13546</v>
+      </c>
+      <c r="AE45">
+        <v>13540</v>
+      </c>
+      <c r="AF45">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -8668,8 +12839,17 @@
       <c r="L46">
         <v>7129</v>
       </c>
+      <c r="AD46">
+        <v>13545</v>
+      </c>
+      <c r="AE46">
+        <v>13540</v>
+      </c>
+      <c r="AF46">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -8697,8 +12877,17 @@
       <c r="L47">
         <v>7124</v>
       </c>
+      <c r="AD47">
+        <v>13550</v>
+      </c>
+      <c r="AE47">
+        <v>13540</v>
+      </c>
+      <c r="AF47">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -8726,8 +12915,17 @@
       <c r="L48">
         <v>7118</v>
       </c>
+      <c r="AD48">
+        <v>13544</v>
+      </c>
+      <c r="AE48">
+        <v>13540</v>
+      </c>
+      <c r="AF48">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -8755,8 +12953,17 @@
       <c r="L49">
         <v>7114</v>
       </c>
+      <c r="AD49">
+        <v>13546</v>
+      </c>
+      <c r="AE49">
+        <v>13540</v>
+      </c>
+      <c r="AF49">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -8784,8 +12991,17 @@
       <c r="L50">
         <v>7107</v>
       </c>
+      <c r="AD50">
+        <v>13543</v>
+      </c>
+      <c r="AE50">
+        <v>13540</v>
+      </c>
+      <c r="AF50">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -8813,8 +13029,17 @@
       <c r="L51">
         <v>7100</v>
       </c>
+      <c r="AD51">
+        <v>13543</v>
+      </c>
+      <c r="AE51">
+        <v>13540</v>
+      </c>
+      <c r="AF51">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -8842,8 +13067,17 @@
       <c r="L52">
         <v>7092</v>
       </c>
+      <c r="AD52">
+        <v>13550</v>
+      </c>
+      <c r="AE52">
+        <v>13540</v>
+      </c>
+      <c r="AF52">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -8871,8 +13105,17 @@
       <c r="L53">
         <v>7085</v>
       </c>
+      <c r="AD53">
+        <v>13545</v>
+      </c>
+      <c r="AE53">
+        <v>13540</v>
+      </c>
+      <c r="AF53">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -8900,8 +13143,17 @@
       <c r="L54">
         <v>7079</v>
       </c>
+      <c r="AD54">
+        <v>13547</v>
+      </c>
+      <c r="AE54">
+        <v>13540</v>
+      </c>
+      <c r="AF54">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -8929,8 +13181,17 @@
       <c r="L55">
         <v>7070</v>
       </c>
+      <c r="AD55">
+        <v>13554</v>
+      </c>
+      <c r="AE55">
+        <v>13540</v>
+      </c>
+      <c r="AF55">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -8958,8 +13219,17 @@
       <c r="L56">
         <v>7054</v>
       </c>
+      <c r="AD56">
+        <v>13550</v>
+      </c>
+      <c r="AE56">
+        <v>13540</v>
+      </c>
+      <c r="AF56">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -8987,8 +13257,17 @@
       <c r="L57">
         <v>7047</v>
       </c>
+      <c r="AD57">
+        <v>13546</v>
+      </c>
+      <c r="AE57">
+        <v>13540</v>
+      </c>
+      <c r="AF57">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -9016,8 +13295,17 @@
       <c r="L58">
         <v>7036</v>
       </c>
+      <c r="AD58">
+        <v>13545</v>
+      </c>
+      <c r="AE58">
+        <v>13540</v>
+      </c>
+      <c r="AF58">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -9045,8 +13333,17 @@
       <c r="L59">
         <v>7027</v>
       </c>
+      <c r="AD59">
+        <v>13540</v>
+      </c>
+      <c r="AE59">
+        <v>13540</v>
+      </c>
+      <c r="AF59">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -9074,8 +13371,17 @@
       <c r="L60">
         <v>7020</v>
       </c>
+      <c r="AD60">
+        <v>13548</v>
+      </c>
+      <c r="AE60">
+        <v>13540</v>
+      </c>
+      <c r="AF60">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -9103,8 +13409,17 @@
       <c r="L61">
         <v>7011</v>
       </c>
+      <c r="AD61">
+        <v>13538</v>
+      </c>
+      <c r="AE61">
+        <v>13540</v>
+      </c>
+      <c r="AF61">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -9132,8 +13447,17 @@
       <c r="L62">
         <v>7004</v>
       </c>
+      <c r="AD62">
+        <v>13546</v>
+      </c>
+      <c r="AE62">
+        <v>13540</v>
+      </c>
+      <c r="AF62">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -9161,8 +13485,17 @@
       <c r="L63">
         <v>6996</v>
       </c>
+      <c r="AD63">
+        <v>13544</v>
+      </c>
+      <c r="AE63">
+        <v>13540</v>
+      </c>
+      <c r="AF63">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -9190,8 +13523,17 @@
       <c r="L64">
         <v>6981</v>
       </c>
+      <c r="AD64">
+        <v>13536</v>
+      </c>
+      <c r="AE64">
+        <v>13540</v>
+      </c>
+      <c r="AF64">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -9219,8 +13561,17 @@
       <c r="L65">
         <v>6977</v>
       </c>
+      <c r="AD65">
+        <v>13541</v>
+      </c>
+      <c r="AE65">
+        <v>13540</v>
+      </c>
+      <c r="AF65">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -9248,8 +13599,17 @@
       <c r="L66">
         <v>6975</v>
       </c>
+      <c r="AD66">
+        <v>13542</v>
+      </c>
+      <c r="AE66">
+        <v>13540</v>
+      </c>
+      <c r="AF66">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -9277,8 +13637,17 @@
       <c r="L67">
         <v>6967</v>
       </c>
+      <c r="AD67">
+        <v>13548</v>
+      </c>
+      <c r="AE67">
+        <v>13540</v>
+      </c>
+      <c r="AF67">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -9306,8 +13675,17 @@
       <c r="L68">
         <v>6958</v>
       </c>
+      <c r="AD68">
+        <v>13544</v>
+      </c>
+      <c r="AE68">
+        <v>13540</v>
+      </c>
+      <c r="AF68">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -9335,8 +13713,17 @@
       <c r="L69">
         <v>6950</v>
       </c>
+      <c r="AD69">
+        <v>13549</v>
+      </c>
+      <c r="AE69">
+        <v>13540</v>
+      </c>
+      <c r="AF69">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -9364,8 +13751,17 @@
       <c r="L70">
         <v>6945</v>
       </c>
+      <c r="AD70">
+        <v>13543</v>
+      </c>
+      <c r="AE70">
+        <v>13540</v>
+      </c>
+      <c r="AF70">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -9393,8 +13789,17 @@
       <c r="L71">
         <v>6941</v>
       </c>
+      <c r="AD71">
+        <v>13534</v>
+      </c>
+      <c r="AE71">
+        <v>13540</v>
+      </c>
+      <c r="AF71">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -9422,8 +13827,17 @@
       <c r="L72">
         <v>6933</v>
       </c>
+      <c r="AD72">
+        <v>13542</v>
+      </c>
+      <c r="AE72">
+        <v>13540</v>
+      </c>
+      <c r="AF72">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -9451,8 +13865,17 @@
       <c r="L73">
         <v>6921</v>
       </c>
+      <c r="AD73">
+        <v>13544</v>
+      </c>
+      <c r="AE73">
+        <v>13540</v>
+      </c>
+      <c r="AF73">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -9480,8 +13903,17 @@
       <c r="L74">
         <v>6911</v>
       </c>
+      <c r="AD74">
+        <v>13543</v>
+      </c>
+      <c r="AE74">
+        <v>13540</v>
+      </c>
+      <c r="AF74">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -9509,8 +13941,17 @@
       <c r="L75">
         <v>6906</v>
       </c>
+      <c r="AD75">
+        <v>13547</v>
+      </c>
+      <c r="AE75">
+        <v>13540</v>
+      </c>
+      <c r="AF75">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -9538,8 +13979,17 @@
       <c r="L76">
         <v>6894</v>
       </c>
+      <c r="AD76">
+        <v>13545</v>
+      </c>
+      <c r="AE76">
+        <v>13540</v>
+      </c>
+      <c r="AF76">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -9567,8 +14017,17 @@
       <c r="L77">
         <v>6888</v>
       </c>
+      <c r="AD77">
+        <v>13543</v>
+      </c>
+      <c r="AE77">
+        <v>13540</v>
+      </c>
+      <c r="AF77">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -9596,8 +14055,17 @@
       <c r="L78">
         <v>6876</v>
       </c>
+      <c r="AD78">
+        <v>13544</v>
+      </c>
+      <c r="AE78">
+        <v>13540</v>
+      </c>
+      <c r="AF78">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -9625,8 +14093,17 @@
       <c r="L79">
         <v>6865</v>
       </c>
+      <c r="AD79">
+        <v>13534</v>
+      </c>
+      <c r="AE79">
+        <v>13540</v>
+      </c>
+      <c r="AF79">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -9654,8 +14131,17 @@
       <c r="L80">
         <v>6857</v>
       </c>
+      <c r="AD80">
+        <v>13551</v>
+      </c>
+      <c r="AE80">
+        <v>13540</v>
+      </c>
+      <c r="AF80">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -9683,8 +14169,17 @@
       <c r="L81">
         <v>6841</v>
       </c>
+      <c r="AD81">
+        <v>13538</v>
+      </c>
+      <c r="AE81">
+        <v>13540</v>
+      </c>
+      <c r="AF81">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -9712,8 +14207,17 @@
       <c r="L82">
         <v>6832</v>
       </c>
+      <c r="AD82">
+        <v>13547</v>
+      </c>
+      <c r="AE82">
+        <v>13540</v>
+      </c>
+      <c r="AF82">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -9741,8 +14245,17 @@
       <c r="L83">
         <v>6826</v>
       </c>
+      <c r="AD83">
+        <v>13545</v>
+      </c>
+      <c r="AE83">
+        <v>13540</v>
+      </c>
+      <c r="AF83">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -9770,8 +14283,17 @@
       <c r="L84">
         <v>6814</v>
       </c>
+      <c r="AD84">
+        <v>13534</v>
+      </c>
+      <c r="AE84">
+        <v>13540</v>
+      </c>
+      <c r="AF84">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -9799,8 +14321,17 @@
       <c r="L85">
         <v>6801</v>
       </c>
+      <c r="AD85">
+        <v>13547</v>
+      </c>
+      <c r="AE85">
+        <v>13540</v>
+      </c>
+      <c r="AF85">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -9828,8 +14359,17 @@
       <c r="L86">
         <v>6794</v>
       </c>
+      <c r="AD86">
+        <v>13541</v>
+      </c>
+      <c r="AE86">
+        <v>13540</v>
+      </c>
+      <c r="AF86">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -9857,8 +14397,17 @@
       <c r="L87">
         <v>6785</v>
       </c>
+      <c r="AD87">
+        <v>13539</v>
+      </c>
+      <c r="AE87">
+        <v>13540</v>
+      </c>
+      <c r="AF87">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -9886,8 +14435,17 @@
       <c r="L88">
         <v>6779</v>
       </c>
+      <c r="AD88">
+        <v>13545</v>
+      </c>
+      <c r="AE88">
+        <v>13540</v>
+      </c>
+      <c r="AF88">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -9915,8 +14473,17 @@
       <c r="L89">
         <v>6772</v>
       </c>
+      <c r="AD89">
+        <v>13544</v>
+      </c>
+      <c r="AE89">
+        <v>13540</v>
+      </c>
+      <c r="AF89">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -9944,8 +14511,17 @@
       <c r="L90">
         <v>6761</v>
       </c>
+      <c r="AD90">
+        <v>13543</v>
+      </c>
+      <c r="AE90">
+        <v>13540</v>
+      </c>
+      <c r="AF90">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -9973,8 +14549,17 @@
       <c r="L91">
         <v>6753</v>
       </c>
+      <c r="AD91">
+        <v>13543</v>
+      </c>
+      <c r="AE91">
+        <v>13540</v>
+      </c>
+      <c r="AF91">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -10002,8 +14587,17 @@
       <c r="L92">
         <v>6745</v>
       </c>
+      <c r="AD92">
+        <v>13543</v>
+      </c>
+      <c r="AE92">
+        <v>13540</v>
+      </c>
+      <c r="AF92">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -10031,8 +14625,17 @@
       <c r="L93">
         <v>6741</v>
       </c>
+      <c r="AD93">
+        <v>13550</v>
+      </c>
+      <c r="AE93">
+        <v>13540</v>
+      </c>
+      <c r="AF93">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -10060,8 +14663,17 @@
       <c r="L94">
         <v>6734</v>
       </c>
+      <c r="AD94">
+        <v>13540</v>
+      </c>
+      <c r="AE94">
+        <v>13540</v>
+      </c>
+      <c r="AF94">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -10089,8 +14701,17 @@
       <c r="L95">
         <v>6726</v>
       </c>
+      <c r="AD95">
+        <v>13543</v>
+      </c>
+      <c r="AE95">
+        <v>13540</v>
+      </c>
+      <c r="AF95">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -10118,8 +14739,17 @@
       <c r="L96">
         <v>6717</v>
       </c>
+      <c r="AD96">
+        <v>13544</v>
+      </c>
+      <c r="AE96">
+        <v>13540</v>
+      </c>
+      <c r="AF96">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -10147,8 +14777,17 @@
       <c r="L97">
         <v>6713</v>
       </c>
+      <c r="AD97">
+        <v>13547</v>
+      </c>
+      <c r="AE97">
+        <v>13540</v>
+      </c>
+      <c r="AF97">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -10176,8 +14815,17 @@
       <c r="L98">
         <v>6704</v>
       </c>
+      <c r="AD98">
+        <v>13545</v>
+      </c>
+      <c r="AE98">
+        <v>13540</v>
+      </c>
+      <c r="AF98">
+        <v>9246</v>
+      </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -10204,6 +14852,26 @@
       </c>
       <c r="L99">
         <v>6695</v>
+      </c>
+      <c r="AD99">
+        <v>13546</v>
+      </c>
+      <c r="AE99">
+        <v>13540</v>
+      </c>
+      <c r="AF99">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD100">
+        <v>13541</v>
+      </c>
+      <c r="AE100">
+        <v>13540</v>
+      </c>
+      <c r="AF100">
+        <v>9246</v>
       </c>
     </row>
   </sheetData>
